--- a/Copy of lista participantes curso R.xlsx
+++ b/Copy of lista participantes curso R.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Google Drive\Academic\FGV-SP\Curso_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C5AA0-BAEF-4078-8104-9EAE3399226D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{6D2D5A84-F9C3-4959-A547-FFD0B4682B1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{6D2D5A84-F9C3-4959-A547-FFD0B4682B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Jairo Pimentel</t>
   </si>
@@ -41,12 +42,6 @@
     <t>Leonardo Bueno</t>
   </si>
   <si>
-    <t>Lorena Barberia (Maria Leticia)</t>
-  </si>
-  <si>
-    <t>Lorena Barberia (Ingrid)</t>
-  </si>
-  <si>
     <t>Michel Szklo</t>
   </si>
   <si>
@@ -113,12 +108,6 @@
     <t>Nelson Marconi</t>
   </si>
   <si>
-    <t>Luiz Guilherme Roth Cantarelli</t>
-  </si>
-  <si>
-    <t>luiz.cantarelli@usp.br</t>
-  </si>
-  <si>
     <t>jaquepz@gmail.com</t>
   </si>
   <si>
@@ -128,7 +117,10 @@
     <t>e-mail</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Maria Leticia Claro de Faria Oliveira</t>
+  </si>
+  <si>
+    <t>maria.leticia.oliveira@usp.br</t>
   </si>
 </sst>
 </file>
@@ -209,13 +201,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -566,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C5A5E9-8D10-4E70-B924-9483DE1562A8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,18 +572,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -599,23 +591,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -623,15 +615,15 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -639,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -647,85 +639,72 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B16">
-    <sortCondition ref="A2:A16"/>
+  <sortState ref="A2:B15">
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
